--- a/webroot/ryos.xlsx
+++ b/webroot/ryos.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="170">
   <si>
     <t>Etiqueta</t>
   </si>
@@ -23,274 +23,508 @@
     <t>Valor</t>
   </si>
   <si>
+    <t>Geografías en expansión y desarrollo</t>
+  </si>
+  <si>
+    <t>false</t>
+  </si>
+  <si>
+    <t>No aplica</t>
+  </si>
+  <si>
+    <t>Final - Fase III</t>
+  </si>
+  <si>
+    <t>2021-12-01</t>
+  </si>
+  <si>
+    <t>Inicio - Fase II</t>
+  </si>
+  <si>
+    <t>2020-11-01</t>
+  </si>
+  <si>
+    <t>Inicio - Fase III</t>
+  </si>
+  <si>
+    <t>2021-11-01</t>
+  </si>
+  <si>
+    <t>Estimado de costos de inversión USD 2020</t>
+  </si>
+  <si>
+    <t>Estimado de costos de inversión GTQ 2022</t>
+  </si>
+  <si>
+    <t>Ingresos anuales</t>
+  </si>
+  <si>
+    <t>Situación con el beneficio (Cifra o descripción)</t>
+  </si>
+  <si>
+    <t>Subcategoría</t>
+  </si>
+  <si>
+    <t>Convocatorias</t>
+  </si>
+  <si>
+    <t>Aplicación posición de mercado</t>
+  </si>
+  <si>
+    <t>Aplicación alineamiento estratégico 3</t>
+  </si>
+  <si>
+    <t>Justificación del valor</t>
+  </si>
+  <si>
+    <t>Justificacón general del ryos</t>
+  </si>
+  <si>
+    <t>Nombre Requerimiento u Oportunidad - RYOS</t>
+  </si>
+  <si>
+    <t>Nombre del RYOS</t>
+  </si>
+  <si>
+    <t>Objetivo #2</t>
+  </si>
+  <si>
+    <t>2. Optimizar la estructura de capital y costos de la deuda</t>
+  </si>
+  <si>
+    <t>Relación simétrica y colaborativa</t>
+  </si>
+  <si>
+    <t>Inicio - Fase I</t>
+  </si>
+  <si>
+    <t>2019-11-01</t>
+  </si>
+  <si>
+    <t>Estimado de costos de inversión EUR 2023</t>
+  </si>
+  <si>
+    <t>Situación actual (Cifra o descripción)</t>
+  </si>
+  <si>
+    <t>Aplicación tema dominante</t>
+  </si>
+  <si>
+    <t>Aplicación alineamiento estratégico 1</t>
+  </si>
+  <si>
+    <t>Aplicación tesis de inversión</t>
+  </si>
+  <si>
+    <t>Aplicación alineamiento estratégico 2</t>
+  </si>
+  <si>
+    <t>Consecuencia sin RYOS</t>
+  </si>
+  <si>
+    <t>Aplicación generación de valor</t>
+  </si>
+  <si>
+    <t>Aplicación generación 1</t>
+  </si>
+  <si>
+    <t>Compartir estándares de sostenibilidad, inversión social y valor compartido</t>
+  </si>
+  <si>
+    <t>true</t>
+  </si>
+  <si>
+    <t>Acceso a tecnología y mejores prácticas gerenciales</t>
+  </si>
+  <si>
+    <t>Capacidad financiera alineada con la inversión y acceso a capital</t>
+  </si>
+  <si>
+    <t>Inicio - Fase IV</t>
+  </si>
+  <si>
+    <t>2022-11-01</t>
+  </si>
+  <si>
+    <t>Estimado de costos de inversión USD 2022</t>
+  </si>
+  <si>
+    <t>Ingreso anual EUR</t>
+  </si>
+  <si>
+    <t>Riesgo 3</t>
+  </si>
+  <si>
+    <t>Riesgo 4</t>
+  </si>
+  <si>
+    <t>Sinergia con otros proyectos o activos propios</t>
+  </si>
+  <si>
+    <t>Media</t>
+  </si>
+  <si>
+    <t>Grupo Estratégico de Negocio (GEN)</t>
+  </si>
+  <si>
+    <t>Transmisión y transporte</t>
+  </si>
+  <si>
+    <t>Tecnología a instalar</t>
+  </si>
+  <si>
+    <t>Conocida en el mundo y empleada en GEB</t>
+  </si>
+  <si>
+    <t>Aplicación gobierno corporativo</t>
+  </si>
+  <si>
+    <t>Aplicación alineamiento estratégico 6</t>
+  </si>
+  <si>
+    <t>Tipo de proyecto</t>
+  </si>
+  <si>
+    <t>Crecimiento</t>
+  </si>
+  <si>
+    <t>País</t>
+  </si>
+  <si>
+    <t>Colombia</t>
+  </si>
+  <si>
+    <t>Gestor RYOS</t>
+  </si>
+  <si>
+    <t>Gestor del RYOS</t>
+  </si>
+  <si>
+    <t>Necesidad a resolver</t>
+  </si>
+  <si>
+    <t>Necesidad a resolver del RYOS</t>
+  </si>
+  <si>
+    <t>Relacionamiento con comunidades y grupos de interés, generando valor compartido</t>
+  </si>
+  <si>
+    <t>Perspectiva de rentabilidad de largo plazo</t>
+  </si>
+  <si>
+    <t>Inicio - Fase V</t>
+  </si>
+  <si>
+    <t>2023-11-01</t>
+  </si>
+  <si>
+    <t>Ciclo de vida del producto (años)</t>
+  </si>
+  <si>
+    <t>Estimado de costos de inversión COP 2022</t>
+  </si>
+  <si>
+    <t>Estimado de costos de inversión COP 2023</t>
+  </si>
+  <si>
+    <t>EBITDA</t>
+  </si>
+  <si>
+    <t>Restricciones y exclusiones</t>
+  </si>
+  <si>
+    <t>Restricciones y exclusiones generales del RYOS</t>
+  </si>
+  <si>
+    <t>Riesgo 5</t>
+  </si>
+  <si>
+    <t>Riesgo 8</t>
+  </si>
+  <si>
+    <t>Complejidad del proyecto</t>
+  </si>
+  <si>
+    <t>Alta</t>
+  </si>
+  <si>
+    <t>Descripción de beneficio</t>
+  </si>
+  <si>
+    <t>Gerencia</t>
+  </si>
+  <si>
+    <t>Gerencia del RYOS</t>
+  </si>
+  <si>
+    <t>Gestión social</t>
+  </si>
+  <si>
+    <t>Medio</t>
+  </si>
+  <si>
+    <t>Vía de ingresos</t>
+  </si>
+  <si>
+    <t>Ingreso por vía de convocatorias o contratos en firme</t>
+  </si>
+  <si>
+    <t>¿Está en el MEC?</t>
+  </si>
+  <si>
+    <t>SI</t>
+  </si>
+  <si>
+    <t>Experiencia en regiones comparables</t>
+  </si>
+  <si>
+    <t>Empresa top 1 o 2 en cada mercado o potencializa la entrada a nuevas regiones</t>
+  </si>
+  <si>
+    <t>Acceso a mercados y reputación superior</t>
+  </si>
+  <si>
+    <t>Estándares de transparencia y reputación del más alto nivel</t>
+  </si>
+  <si>
+    <t>Perspectiva de dividendos creciente</t>
+  </si>
+  <si>
+    <t>Barreras de entrada vía altas inversiones de capital</t>
+  </si>
+  <si>
+    <t>Mercados regulados</t>
+  </si>
+  <si>
+    <t>Fin - Fase II</t>
+  </si>
+  <si>
+    <t>2020-12-01</t>
+  </si>
+  <si>
+    <t>Final - Fase IV</t>
+  </si>
+  <si>
+    <t>2022-12-01</t>
+  </si>
+  <si>
+    <t>Fin - Fase V</t>
+  </si>
+  <si>
+    <t>2023-12-01</t>
+  </si>
+  <si>
+    <t>Estimado de costos de inversión GTQ 2019</t>
+  </si>
+  <si>
+    <t>Estimado de costos de inversión GTQ 2021</t>
+  </si>
+  <si>
+    <t>Ingreso anual GTQ</t>
+  </si>
+  <si>
+    <t>Riesgo 1</t>
+  </si>
+  <si>
+    <t>Riesgo 2</t>
+  </si>
+  <si>
+    <t>Riesgo 6</t>
+  </si>
+  <si>
+    <t>Alcance</t>
+  </si>
+  <si>
+    <t>Alcance general del RYOS</t>
+  </si>
+  <si>
+    <t>Aplicación objetivo 3</t>
+  </si>
+  <si>
+    <t>Aplicación 3</t>
+  </si>
+  <si>
+    <t>Aplicación capacidades técnicas, financieras y de gestión de riesgos clave</t>
+  </si>
+  <si>
+    <t>Aplicación alineamiento estratégico 5</t>
+  </si>
+  <si>
+    <t>Estabilidad de ingresos</t>
+  </si>
+  <si>
+    <t>Baja - Ingresos por otros mecanismos</t>
+  </si>
+  <si>
+    <t>Aporte a la MEGA</t>
+  </si>
+  <si>
+    <t>Baja - Aporte menor al 2% de la MEGA</t>
+  </si>
+  <si>
+    <t>Exposición a buenas perspectivas demográficas de largo plazo</t>
+  </si>
+  <si>
+    <t>Institucionalidad regulatoria y jurídica confiable</t>
+  </si>
+  <si>
+    <t>Capacidad de intervenir proactivamente en la agenda de crecimiento</t>
+  </si>
+  <si>
+    <t>Estimado de costos de inversión EUR 2019</t>
+  </si>
+  <si>
+    <t>Estimado de costos de inversión COP 2020</t>
+  </si>
+  <si>
+    <t>Estimado de costos de inversión COP 2021</t>
+  </si>
+  <si>
+    <t>Estimado de costos de inversión EUR 2021</t>
+  </si>
+  <si>
+    <t>Valor tentativo</t>
+  </si>
+  <si>
+    <t>Supuestos</t>
+  </si>
+  <si>
+    <t>Supuestos generales del RYOS</t>
+  </si>
+  <si>
+    <t>Aplicación modelo de intervención</t>
+  </si>
+  <si>
+    <t>Aplicación alineamiento estratégico 4</t>
+  </si>
+  <si>
+    <t>Interconexión (Mercados entre)</t>
+  </si>
+  <si>
+    <t>Fuentes energéticas y grandes usuarios</t>
+  </si>
+  <si>
+    <t>Justificación MEC</t>
+  </si>
+  <si>
+    <t>Identificación y manejo de conflictos de interés con otras compañías del grupo</t>
+  </si>
+  <si>
+    <t>Bajo niveles relativos de riesgo</t>
+  </si>
+  <si>
+    <t>Ingreso anual COP</t>
+  </si>
+  <si>
+    <t>Estimado de costos de inversión COP 2019</t>
+  </si>
+  <si>
+    <t>Estimado de costos de inversión USD 2023</t>
+  </si>
+  <si>
+    <t>Ingreso anual USD</t>
+  </si>
+  <si>
+    <t>Riesgo 7</t>
+  </si>
+  <si>
+    <t>Riesgo 9</t>
+  </si>
+  <si>
+    <t>Visualización de un socio estratégico</t>
+  </si>
+  <si>
+    <t>Vicepresidencia / Dirección</t>
+  </si>
+  <si>
+    <t>Vicepresidencia del RYOS</t>
+  </si>
+  <si>
+    <t>Aplicación objetivo 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Aplicación 1 </t>
+  </si>
+  <si>
+    <t>Aplicación objetivo 2</t>
+  </si>
+  <si>
+    <t>Aplicación 2</t>
+  </si>
+  <si>
+    <t>¿Cuál? (opcional)</t>
+  </si>
+  <si>
+    <t>Socio estratégico</t>
+  </si>
+  <si>
+    <t>Gestión ambiental</t>
+  </si>
+  <si>
+    <t>¿Proyecto de origen Mandatorio?</t>
+  </si>
+  <si>
+    <t>Objetivo #1</t>
+  </si>
+  <si>
+    <t>1. Maximizar dividendos de largo plazo</t>
+  </si>
+  <si>
+    <t>Objetivo #3</t>
+  </si>
+  <si>
+    <t>3. Maximizar la eficiencia financiera</t>
+  </si>
+  <si>
     <t>En la cadena energética de baja emisión</t>
   </si>
   <si>
-    <t>false</t>
-  </si>
-  <si>
-    <t>No aplica</t>
-  </si>
-  <si>
-    <t>Exposición a buenas perspectivas demográficas de largo plazo</t>
-  </si>
-  <si>
-    <t>Institucionalidad regulatoria y jurídica confiable</t>
-  </si>
-  <si>
-    <t>Geografías en expansión y desarrollo</t>
-  </si>
-  <si>
-    <t>Capacidad de intervenir proactivamente en la agenda de crecimiento</t>
-  </si>
-  <si>
-    <t>Compartir estándares de sostenibilidad, inversión social y valor compartido</t>
-  </si>
-  <si>
-    <t>Relacionamiento con comunidades y grupos de interés, generando valor compartido</t>
-  </si>
-  <si>
-    <t>Experiencia en regiones comparables</t>
-  </si>
-  <si>
-    <t>Empresa top 1 o 2 en cada mercado o potencializa la entrada a nuevas regiones</t>
-  </si>
-  <si>
-    <t>Acceso a tecnología y mejores prácticas gerenciales</t>
-  </si>
-  <si>
-    <t>Capacidad financiera alineada con la inversión y acceso a capital</t>
-  </si>
-  <si>
-    <t>Acceso a mercados y reputación superior</t>
-  </si>
-  <si>
     <t>Socios: Acuerdos de accionistas alineados en intereses de largo plazo del Grupo</t>
   </si>
   <si>
     <t>Aliados: Acuerdos de niveles de servicio, aspectos técnicos o de gestión de a través de relaciones contractuales a mediano y largo plazo</t>
   </si>
   <si>
-    <t>Estándares de transparencia y reputación del más alto nivel</t>
-  </si>
-  <si>
-    <t>Identificación y manejo de conflictos de interés con otras compañías del grupo</t>
-  </si>
-  <si>
-    <t>Relación simétrica y colaborativa</t>
-  </si>
-  <si>
     <t>Enmarcada bajo las premisas clave de cada GEN (focos, regiones y destrezas)</t>
   </si>
   <si>
-    <t>Perspectiva de rentabilidad de largo plazo</t>
-  </si>
-  <si>
-    <t>Perspectiva de dividendos creciente</t>
-  </si>
-  <si>
-    <t>Barreras de entrada vía altas inversiones de capital</t>
-  </si>
-  <si>
-    <t>Mercados regulados</t>
-  </si>
-  <si>
-    <t>Bajo niveles relativos de riesgo</t>
-  </si>
-  <si>
     <t>Fin - Fase I</t>
   </si>
   <si>
-    <t>Fin - Fase II</t>
-  </si>
-  <si>
-    <t>Final - Fase III</t>
-  </si>
-  <si>
-    <t>Final - Fase IV</t>
-  </si>
-  <si>
-    <t>Fin - Fase V</t>
-  </si>
-  <si>
-    <t>Inicio - Fase I</t>
-  </si>
-  <si>
-    <t>Inicio - Fase II</t>
-  </si>
-  <si>
-    <t>Inicio - Fase III</t>
-  </si>
-  <si>
-    <t>Inicio - Fase IV</t>
-  </si>
-  <si>
-    <t>Inicio - Fase V</t>
-  </si>
-  <si>
-    <t>Ciclo de vida del producto (años)</t>
-  </si>
-  <si>
-    <t>Ingreso anual COP</t>
+    <t>2019-12-01</t>
+  </si>
+  <si>
+    <t>Estimado de costos de inversión USD 2019</t>
+  </si>
+  <si>
+    <t>Estimado de costos de inversión EUR 2020</t>
+  </si>
+  <si>
+    <t>Estimado de costos de inversión GTQ 2020</t>
+  </si>
+  <si>
+    <t>Estimado de costos de inversión USD 2021</t>
+  </si>
+  <si>
+    <t>Estimado de costos de inversión EUR 2022</t>
+  </si>
+  <si>
+    <t>Estimado de costos de inversión GTQ 2023</t>
   </si>
   <si>
     <t>Costos por no ejecución</t>
   </si>
   <si>
-    <t>EBITDA</t>
-  </si>
-  <si>
-    <t>Ingreso anual EUR</t>
-  </si>
-  <si>
-    <t>Ingreso anual GTQ</t>
-  </si>
-  <si>
-    <t>Ingresos anuales</t>
-  </si>
-  <si>
-    <t>Ingreso anual USD</t>
-  </si>
-  <si>
-    <t>Alcance</t>
-  </si>
-  <si>
-    <t>Aplicación objetivo 1</t>
-  </si>
-  <si>
-    <t>Aplicación objetivo 2</t>
-  </si>
-  <si>
-    <t>Aplicación objetivo 3</t>
-  </si>
-  <si>
-    <t>Aplicación tema dominante</t>
-  </si>
-  <si>
-    <t>Aplicación tesis de inversión</t>
-  </si>
-  <si>
-    <t>Aplicación posición de mercado</t>
-  </si>
-  <si>
-    <t>Aplicación modelo de intervención</t>
-  </si>
-  <si>
-    <t>Aplicación capacidades técnicas, financieras y de gestión de riesgos clave</t>
-  </si>
-  <si>
-    <t>Aplicación gobierno corporativo</t>
-  </si>
-  <si>
-    <t>Tipo de proyecto</t>
-  </si>
-  <si>
-    <t>Crecimiento</t>
-  </si>
-  <si>
-    <t>Consecuencia sin RYOS</t>
-  </si>
-  <si>
-    <t>País</t>
-  </si>
-  <si>
-    <t>Colombia</t>
-  </si>
-  <si>
-    <t>Descripción de beneficio</t>
+    <t>Tipo de beneficio</t>
+  </si>
+  <si>
+    <t>Tangible</t>
   </si>
   <si>
     <t>Filial</t>
   </si>
   <si>
     <t>GEB</t>
-  </si>
-  <si>
-    <t>Aplicación generación de valor</t>
-  </si>
-  <si>
-    <t>Gerencia</t>
-  </si>
-  <si>
-    <t>Gestor RYOS</t>
-  </si>
-  <si>
-    <t>Justificación MEC</t>
-  </si>
-  <si>
-    <t>Justificación del valor</t>
-  </si>
-  <si>
-    <t>¿Proyecto de origen Mandatorio?</t>
-  </si>
-  <si>
-    <t>SI</t>
-  </si>
-  <si>
-    <t>Nombre Requerimiento u Oportunidad - RYOS</t>
-  </si>
-  <si>
-    <t>coma</t>
-  </si>
-  <si>
-    <t>Necesidad a resolver</t>
-  </si>
-  <si>
-    <t>Presupuesto total</t>
-  </si>
-  <si>
-    <t>Restricciones y exclusiones</t>
-  </si>
-  <si>
-    <t>Riesgo 1</t>
-  </si>
-  <si>
-    <t>Riesgo 2</t>
-  </si>
-  <si>
-    <t>Riesgo 3</t>
-  </si>
-  <si>
-    <t>Riesgo 4</t>
-  </si>
-  <si>
-    <t>Riesgo 5</t>
-  </si>
-  <si>
-    <t>Riesgo 6</t>
-  </si>
-  <si>
-    <t>Riesgo 7</t>
-  </si>
-  <si>
-    <t>Riesgo 8</t>
-  </si>
-  <si>
-    <t>Riesgo 9</t>
-  </si>
-  <si>
-    <t>Situación actual (Cifra o descripción)</t>
-  </si>
-  <si>
-    <t>Situación con el beneficio (Cifra o descripción)</t>
-  </si>
-  <si>
-    <t>Grupo Estratégico de Negocio (GEN)</t>
-  </si>
-  <si>
-    <t>Distribución</t>
-  </si>
-  <si>
-    <t>Subcategoría</t>
-  </si>
-  <si>
-    <t>Convocatorias</t>
-  </si>
-  <si>
-    <t>Supuestos</t>
-  </si>
-  <si>
-    <t>Vicepresidencia / Dirección</t>
   </si>
 </sst>
 </file>
@@ -699,16 +933,16 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:B85"/>
+  <dimension ref="A1:B121"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="false" showRowColHeaders="1">
-      <selection activeCell="A3" sqref="A3:B85"/>
+      <selection activeCell="A3" sqref="A3:B121"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col min="1" max="1" width="161.531982" bestFit="true" customWidth="true" style="0"/>
-    <col min="2" max="2" width="16.424561" bestFit="true" customWidth="true" style="0"/>
+    <col min="2" max="2" width="69.554443" bestFit="true" customWidth="true" style="0"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" customHeight="1" ht="80">
@@ -744,100 +978,96 @@
         <v>5</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="4" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="4" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B8" s="5" t="s">
-        <v>3</v>
+        <v>11</v>
+      </c>
+      <c r="B8" s="5">
+        <v>14</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="B9" s="5" t="s">
-        <v>3</v>
+        <v>12</v>
+      </c>
+      <c r="B9" s="5">
+        <v>8</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="B10" s="5" t="s">
-        <v>3</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="B10" s="5"/>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="B11" s="5" t="s">
-        <v>3</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="B11" s="5"/>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" s="4" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>3</v>
+        <v>16</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" s="4" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>3</v>
+        <v>18</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" s="4" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>3</v>
+        <v>20</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" s="4" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>3</v>
+        <v>22</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" s="4" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>3</v>
+        <v>24</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="4" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="B17" s="5" t="s">
         <v>3</v>
@@ -845,457 +1075,813 @@
     </row>
     <row r="18" spans="1:2">
       <c r="A18" s="4" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>3</v>
+        <v>27</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="B19" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="B19" s="5">
         <v>3</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="B20" s="5" t="s">
-        <v>3</v>
-      </c>
+        <v>29</v>
+      </c>
+      <c r="B20" s="5"/>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" s="4" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>3</v>
+        <v>31</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22" s="4" t="s">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>3</v>
+        <v>33</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" s="4" t="s">
-        <v>23</v>
+        <v>34</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>3</v>
+        <v>34</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="A24" s="4" t="s">
-        <v>24</v>
+        <v>35</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>3</v>
+        <v>36</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25" s="4" t="s">
-        <v>25</v>
+        <v>37</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>3</v>
+        <v>38</v>
       </c>
     </row>
     <row r="26" spans="1:2">
       <c r="A26" s="4" t="s">
-        <v>26</v>
+        <v>39</v>
       </c>
       <c r="B26" s="5" t="s">
-        <v>3</v>
+        <v>38</v>
       </c>
     </row>
     <row r="27" spans="1:2">
       <c r="A27" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="B27" s="5"/>
+        <v>40</v>
+      </c>
+      <c r="B27" s="5" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="28" spans="1:2">
       <c r="A28" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="B28" s="5"/>
+        <v>41</v>
+      </c>
+      <c r="B28" s="5" t="s">
+        <v>42</v>
+      </c>
     </row>
     <row r="29" spans="1:2">
       <c r="A29" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="B29" s="5"/>
+        <v>43</v>
+      </c>
+      <c r="B29" s="5">
+        <v>6</v>
+      </c>
     </row>
     <row r="30" spans="1:2">
       <c r="A30" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="B30" s="5"/>
+        <v>44</v>
+      </c>
+      <c r="B30" s="5">
+        <v>3</v>
+      </c>
     </row>
     <row r="31" spans="1:2">
       <c r="A31" s="4" t="s">
-        <v>31</v>
+        <v>45</v>
       </c>
       <c r="B31" s="5"/>
     </row>
     <row r="32" spans="1:2">
       <c r="A32" s="4" t="s">
-        <v>32</v>
+        <v>46</v>
       </c>
       <c r="B32" s="5"/>
     </row>
     <row r="33" spans="1:2">
       <c r="A33" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="B33" s="5"/>
+        <v>47</v>
+      </c>
+      <c r="B33" s="5" t="s">
+        <v>48</v>
+      </c>
     </row>
     <row r="34" spans="1:2">
       <c r="A34" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="B34" s="5"/>
+        <v>49</v>
+      </c>
+      <c r="B34" s="5" t="s">
+        <v>50</v>
+      </c>
     </row>
     <row r="35" spans="1:2">
       <c r="A35" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="B35" s="5"/>
+        <v>51</v>
+      </c>
+      <c r="B35" s="5" t="s">
+        <v>52</v>
+      </c>
     </row>
     <row r="36" spans="1:2">
       <c r="A36" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="B36" s="5"/>
+        <v>53</v>
+      </c>
+      <c r="B36" s="5" t="s">
+        <v>54</v>
+      </c>
     </row>
     <row r="37" spans="1:2">
       <c r="A37" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="B37" s="5">
-        <v>0</v>
+        <v>55</v>
+      </c>
+      <c r="B37" s="5" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="38" spans="1:2">
       <c r="A38" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="B38" s="5">
-        <v>0</v>
+        <v>57</v>
+      </c>
+      <c r="B38" s="5" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="39" spans="1:2">
       <c r="A39" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="B39" s="5"/>
+        <v>59</v>
+      </c>
+      <c r="B39" s="5" t="s">
+        <v>60</v>
+      </c>
     </row>
     <row r="40" spans="1:2">
       <c r="A40" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="B40" s="5">
-        <v>0</v>
+        <v>61</v>
+      </c>
+      <c r="B40" s="5" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="41" spans="1:2">
-      <c r="A41" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="B41" s="5">
-        <v>0</v>
-      </c>
+      <c r="A41" s="4"/>
+      <c r="B41" s="5"/>
     </row>
     <row r="42" spans="1:2">
       <c r="A42" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="B42" s="5">
-        <v>0</v>
+        <v>63</v>
+      </c>
+      <c r="B42" s="5" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="43" spans="1:2">
       <c r="A43" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="B43" s="5">
-        <v>0</v>
+        <v>64</v>
+      </c>
+      <c r="B43" s="5" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="44" spans="1:2">
       <c r="A44" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="B44" s="5">
-        <v>0</v>
+        <v>65</v>
+      </c>
+      <c r="B44" s="5" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="45" spans="1:2">
       <c r="A45" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="B45" s="5"/>
+        <v>67</v>
+      </c>
+      <c r="B45" s="5">
+        <v>5</v>
+      </c>
     </row>
     <row r="46" spans="1:2">
       <c r="A46" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="B46" s="5"/>
+        <v>68</v>
+      </c>
+      <c r="B46" s="5">
+        <v>5</v>
+      </c>
     </row>
     <row r="47" spans="1:2">
       <c r="A47" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="B47" s="5"/>
+        <v>69</v>
+      </c>
+      <c r="B47" s="5">
+        <v>1</v>
+      </c>
     </row>
     <row r="48" spans="1:2">
       <c r="A48" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="B48" s="5"/>
+        <v>70</v>
+      </c>
+      <c r="B48" s="5">
+        <v>100</v>
+      </c>
     </row>
     <row r="49" spans="1:2">
       <c r="A49" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="B49" s="5"/>
+        <v>71</v>
+      </c>
+      <c r="B49" s="5" t="s">
+        <v>72</v>
+      </c>
     </row>
     <row r="50" spans="1:2">
       <c r="A50" s="4" t="s">
-        <v>50</v>
+        <v>73</v>
       </c>
       <c r="B50" s="5"/>
     </row>
     <row r="51" spans="1:2">
       <c r="A51" s="4" t="s">
-        <v>51</v>
+        <v>74</v>
       </c>
       <c r="B51" s="5"/>
     </row>
     <row r="52" spans="1:2">
       <c r="A52" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="B52" s="5"/>
+        <v>75</v>
+      </c>
+      <c r="B52" s="5" t="s">
+        <v>76</v>
+      </c>
     </row>
     <row r="53" spans="1:2">
       <c r="A53" s="4" t="s">
-        <v>53</v>
+        <v>77</v>
       </c>
       <c r="B53" s="5"/>
     </row>
     <row r="54" spans="1:2">
       <c r="A54" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="B54" s="5"/>
+        <v>78</v>
+      </c>
+      <c r="B54" s="5" t="s">
+        <v>79</v>
+      </c>
     </row>
     <row r="55" spans="1:2">
       <c r="A55" s="4" t="s">
-        <v>55</v>
+        <v>80</v>
       </c>
       <c r="B55" s="5" t="s">
-        <v>56</v>
+        <v>81</v>
       </c>
     </row>
     <row r="56" spans="1:2">
       <c r="A56" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="B56" s="5"/>
+        <v>82</v>
+      </c>
+      <c r="B56" s="5" t="s">
+        <v>83</v>
+      </c>
     </row>
     <row r="57" spans="1:2">
       <c r="A57" s="4" t="s">
-        <v>58</v>
+        <v>84</v>
       </c>
       <c r="B57" s="5" t="s">
-        <v>59</v>
+        <v>85</v>
       </c>
     </row>
     <row r="58" spans="1:2">
       <c r="A58" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="B58" s="5"/>
+        <v>86</v>
+      </c>
+      <c r="B58" s="5" t="s">
+        <v>38</v>
+      </c>
     </row>
     <row r="59" spans="1:2">
-      <c r="A59" s="4"/>
-      <c r="B59" s="5"/>
+      <c r="A59" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="B59" s="5" t="s">
+        <v>38</v>
+      </c>
     </row>
     <row r="60" spans="1:2">
       <c r="A60" s="4" t="s">
-        <v>61</v>
+        <v>88</v>
       </c>
       <c r="B60" s="5" t="s">
-        <v>62</v>
+        <v>3</v>
       </c>
     </row>
     <row r="61" spans="1:2">
       <c r="A61" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="B61" s="5"/>
+        <v>89</v>
+      </c>
+      <c r="B61" s="5" t="s">
+        <v>38</v>
+      </c>
     </row>
     <row r="62" spans="1:2">
       <c r="A62" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="B62" s="5"/>
+        <v>90</v>
+      </c>
+      <c r="B62" s="5" t="s">
+        <v>38</v>
+      </c>
     </row>
     <row r="63" spans="1:2">
       <c r="A63" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="B63" s="5"/>
+        <v>91</v>
+      </c>
+      <c r="B63" s="5" t="s">
+        <v>38</v>
+      </c>
     </row>
     <row r="64" spans="1:2">
       <c r="A64" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="B64" s="5"/>
+        <v>92</v>
+      </c>
+      <c r="B64" s="5" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="65" spans="1:2">
       <c r="A65" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="B65" s="5"/>
+        <v>93</v>
+      </c>
+      <c r="B65" s="5" t="s">
+        <v>94</v>
+      </c>
     </row>
     <row r="66" spans="1:2">
       <c r="A66" s="4" t="s">
-        <v>68</v>
+        <v>95</v>
       </c>
       <c r="B66" s="5" t="s">
-        <v>69</v>
+        <v>96</v>
       </c>
     </row>
     <row r="67" spans="1:2">
       <c r="A67" s="4" t="s">
-        <v>70</v>
+        <v>97</v>
       </c>
       <c r="B67" s="5" t="s">
-        <v>71</v>
+        <v>98</v>
       </c>
     </row>
     <row r="68" spans="1:2">
       <c r="A68" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="B68" s="5"/>
+        <v>99</v>
+      </c>
+      <c r="B68" s="5">
+        <v>20</v>
+      </c>
     </row>
     <row r="69" spans="1:2">
       <c r="A69" s="4" t="s">
-        <v>73</v>
+        <v>100</v>
       </c>
       <c r="B69" s="5">
-        <v>0</v>
+        <v>12</v>
       </c>
     </row>
     <row r="70" spans="1:2">
       <c r="A70" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="B70" s="5"/>
+        <v>101</v>
+      </c>
+      <c r="B70" s="5">
+        <v>4</v>
+      </c>
     </row>
     <row r="71" spans="1:2">
       <c r="A71" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="B71" s="5"/>
+        <v>102</v>
+      </c>
+      <c r="B71" s="5" t="s">
+        <v>102</v>
+      </c>
     </row>
     <row r="72" spans="1:2">
       <c r="A72" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="B72" s="5"/>
+        <v>103</v>
+      </c>
+      <c r="B72" s="5" t="s">
+        <v>103</v>
+      </c>
     </row>
     <row r="73" spans="1:2">
       <c r="A73" s="4" t="s">
-        <v>77</v>
+        <v>104</v>
       </c>
       <c r="B73" s="5"/>
     </row>
     <row r="74" spans="1:2">
       <c r="A74" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="B74" s="5"/>
+        <v>105</v>
+      </c>
+      <c r="B74" s="5" t="s">
+        <v>106</v>
+      </c>
     </row>
     <row r="75" spans="1:2">
       <c r="A75" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="B75" s="5"/>
+        <v>107</v>
+      </c>
+      <c r="B75" s="5" t="s">
+        <v>108</v>
+      </c>
     </row>
     <row r="76" spans="1:2">
       <c r="A76" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="B76" s="5"/>
+        <v>109</v>
+      </c>
+      <c r="B76" s="5" t="s">
+        <v>110</v>
+      </c>
     </row>
     <row r="77" spans="1:2">
       <c r="A77" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="B77" s="5"/>
+        <v>111</v>
+      </c>
+      <c r="B77" s="5" t="s">
+        <v>112</v>
+      </c>
     </row>
     <row r="78" spans="1:2">
       <c r="A78" s="4" t="s">
-        <v>82</v>
-      </c>
-      <c r="B78" s="5"/>
+        <v>113</v>
+      </c>
+      <c r="B78" s="5" t="s">
+        <v>114</v>
+      </c>
     </row>
     <row r="79" spans="1:2">
       <c r="A79" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="B79" s="5"/>
+        <v>115</v>
+      </c>
+      <c r="B79" s="5" t="s">
+        <v>38</v>
+      </c>
     </row>
     <row r="80" spans="1:2">
       <c r="A80" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="B80" s="5"/>
+        <v>116</v>
+      </c>
+      <c r="B80" s="5" t="s">
+        <v>38</v>
+      </c>
     </row>
     <row r="81" spans="1:2">
       <c r="A81" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="B81" s="5"/>
+        <v>117</v>
+      </c>
+      <c r="B81" s="5" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="82" spans="1:2">
       <c r="A82" s="4" t="s">
-        <v>86</v>
-      </c>
-      <c r="B82" s="5" t="s">
-        <v>87</v>
+        <v>118</v>
+      </c>
+      <c r="B82" s="5">
+        <v>19</v>
       </c>
     </row>
     <row r="83" spans="1:2">
       <c r="A83" s="4" t="s">
-        <v>88</v>
-      </c>
-      <c r="B83" s="5" t="s">
-        <v>89</v>
+        <v>119</v>
+      </c>
+      <c r="B83" s="5">
+        <v>13</v>
       </c>
     </row>
     <row r="84" spans="1:2">
       <c r="A84" s="4" t="s">
-        <v>90</v>
-      </c>
-      <c r="B84" s="5"/>
+        <v>120</v>
+      </c>
+      <c r="B84" s="5">
+        <v>9</v>
+      </c>
     </row>
     <row r="85" spans="1:2">
       <c r="A85" s="4" t="s">
-        <v>91</v>
-      </c>
-      <c r="B85" s="5"/>
+        <v>121</v>
+      </c>
+      <c r="B85" s="5">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2">
+      <c r="A86" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="B86" s="5">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2">
+      <c r="A87" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="B87" s="5" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2">
+      <c r="A88" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="B88" s="5" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2">
+      <c r="A89" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="B89" s="5" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2">
+      <c r="A90" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="B90" s="5" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2">
+      <c r="A91" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="B91" s="5" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2">
+      <c r="A92" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="B92" s="5" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2">
+      <c r="A93" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="B93" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2">
+      <c r="A94" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="B94" s="5">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2">
+      <c r="A95" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="B95" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2">
+      <c r="A96" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="B96" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2">
+      <c r="A97" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="B97" s="5"/>
+    </row>
+    <row r="98" spans="1:2">
+      <c r="A98" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="B98" s="5"/>
+    </row>
+    <row r="99" spans="1:2">
+      <c r="A99" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="B99" s="5" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2">
+      <c r="A100" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="B100" s="5" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2">
+      <c r="A101" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="B101" s="5" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2">
+      <c r="A102" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="B102" s="5" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2">
+      <c r="A103" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="B103" s="5" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2">
+      <c r="A104" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="B104" s="5" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2">
+      <c r="A105" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="B105" s="5" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2">
+      <c r="A106" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="B106" s="5" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2">
+      <c r="A107" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="B107" s="5" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2">
+      <c r="A108" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="B108" s="5" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2">
+      <c r="A109" s="4" t="s">
+        <v>154</v>
+      </c>
+      <c r="B109" s="5" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2">
+      <c r="A110" s="4" t="s">
+        <v>155</v>
+      </c>
+      <c r="B110" s="5" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="111" spans="1:2">
+      <c r="A111" s="4" t="s">
+        <v>156</v>
+      </c>
+      <c r="B111" s="5" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="112" spans="1:2">
+      <c r="A112" s="4" t="s">
+        <v>157</v>
+      </c>
+      <c r="B112" s="5" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2">
+      <c r="A113" s="4" t="s">
+        <v>159</v>
+      </c>
+      <c r="B113" s="5">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2">
+      <c r="A114" s="4" t="s">
+        <v>160</v>
+      </c>
+      <c r="B114" s="5">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="115" spans="1:2">
+      <c r="A115" s="4" t="s">
+        <v>161</v>
+      </c>
+      <c r="B115" s="5">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="116" spans="1:2">
+      <c r="A116" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="B116" s="5">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="117" spans="1:2">
+      <c r="A117" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="B117" s="5">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="118" spans="1:2">
+      <c r="A118" s="4" t="s">
+        <v>164</v>
+      </c>
+      <c r="B118" s="5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="119" spans="1:2">
+      <c r="A119" s="4" t="s">
+        <v>165</v>
+      </c>
+      <c r="B119" s="5">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="120" spans="1:2">
+      <c r="A120" s="4" t="s">
+        <v>166</v>
+      </c>
+      <c r="B120" s="5" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="121" spans="1:2">
+      <c r="A121" s="4" t="s">
+        <v>168</v>
+      </c>
+      <c r="B121" s="5" t="s">
+        <v>169</v>
+      </c>
     </row>
   </sheetData>
   <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
